--- a/Solutions/QuickCopy Test Cases.xlsx
+++ b/Solutions/QuickCopy Test Cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
   <si>
     <t>Dependencies:</t>
   </si>
@@ -223,9 +223,6 @@
     <t>1.Click on Service-&gt;Contracts
 2.Open any record from grid.
 3.Click on Quick Copy button on the ribbon</t>
-  </si>
-  <si>
-    <t>f</t>
   </si>
 </sst>
 </file>
@@ -961,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1150,9 +1147,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
@@ -1166,9 +1161,7 @@
         <v>21</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -1182,9 +1175,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
@@ -1198,9 +1189,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
@@ -1214,9 +1203,7 @@
         <v>21</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="s">
@@ -1230,9 +1217,7 @@
         <v>21</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
@@ -1274,9 +1259,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
@@ -1290,9 +1273,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="16"/>
-      <c r="F23" s="15" t="s">
-        <v>50</v>
-      </c>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
